--- a/predict/2023/saved/week9.xlsx
+++ b/predict/2023/saved/week9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="290">
   <si>
     <t>Index</t>
   </si>
@@ -94,36 +94,39 @@
     <t>17.0</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2023-10-25</t>
+  </si>
+  <si>
+    <t>JVille St</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>83.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2023-10-25</t>
-  </si>
-  <si>
-    <t>JVille St</t>
-  </si>
-  <si>
-    <t>JVST</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
@@ -157,636 +160,636 @@
     <t>73.0</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>17.4</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>82.6</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Georgia St</t>
+  </si>
+  <si>
+    <t>GAST</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>Florida A&amp;M</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Florida A&amp;M], Calculate() - [?] team playing [DIVISION 1 FBS] team, Charlotte wins</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2023-10-28</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>OSU</t>
+  </si>
+  <si>
+    <t>75.5</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>65.1</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>34.9</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>89.1</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>39.4</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>60.6</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>86.8</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2023-10-26</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>17.4</t>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>47.5</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t>52.5</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Pitt</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t>82.6</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Georgia St</t>
-  </si>
-  <si>
-    <t>GAST</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>UGA</t>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>SE Louisiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the second team [SE Louisiana], Calculate() - [DIVISION 1 FBS] team playing [?] team, Duke wins</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>TULN</t>
+  </si>
+  <si>
+    <t>35.9</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>64.1</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>96.2</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>48.8</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>51.2</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>MASS</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>UConn</t>
+  </si>
+  <si>
+    <t>CONN</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>45.7</t>
+  </si>
+  <si>
+    <t>54.3</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>WVU</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>TLSA</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>W Michigan</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>E Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the second team [E Illinois], Calculate() - [DIVISION 1 FBS] team playing [?] team, W Michigan wins</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>CLEM</t>
+  </si>
+  <si>
+    <t>36.9</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>NCSU</t>
+  </si>
+  <si>
+    <t>63.1</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>67.7</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>UNT</t>
+  </si>
+  <si>
+    <t>32.3</t>
+  </si>
+  <si>
+    <t>Mississippi St</t>
+  </si>
+  <si>
+    <t>MSST</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>93.7</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>33.6</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>66.4</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>East Carolina</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>Southern Miss</t>
+  </si>
+  <si>
+    <t>USM</t>
+  </si>
+  <si>
+    <t>Appalachian St</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Miami OH</t>
+  </si>
+  <si>
+    <t>M-OH</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>87.4</t>
+  </si>
+  <si>
+    <t>UL Monroe</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>12.6</t>
   </si>
   <si>
     <t>46</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
-    <t>Florida A&amp;M</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>CLT</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Florida A&amp;M], Calculate() - [?] team playing [DIVISION 1 FBS] team, Charlotte wins</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2023-10-28</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
-    <t>OSU</t>
-  </si>
-  <si>
-    <t>75.5</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>WIS</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>65.1</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>34.9</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>WASH</t>
-  </si>
-  <si>
-    <t>10.9</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>89.1</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>39.4</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>60.6</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>ORE</t>
-  </si>
-  <si>
-    <t>86.8</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>13.2</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>Penn State</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>47.5</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>ARIZ</t>
-  </si>
-  <si>
-    <t>52.5</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>Pitt</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>DUKE</t>
-  </si>
-  <si>
-    <t>SE Louisiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the second team [SE Louisiana], Calculate() - [DIVISION 1 FBS] team playing [?] team, Duke wins</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Air Force</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>COLO</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>TENN</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>TULN</t>
-  </si>
-  <si>
-    <t>35.9</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>RICE</t>
-  </si>
-  <si>
-    <t>64.1</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>96.2</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>48.8</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>CAL</t>
-  </si>
-  <si>
-    <t>51.2</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>ODU</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>MASS</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>UConn</t>
-  </si>
-  <si>
-    <t>CONN</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>45.7</t>
-  </si>
-  <si>
-    <t>54.3</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>TA&amp;M</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>WVU</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>TLSA</t>
-  </si>
-  <si>
-    <t>SMU</t>
-  </si>
-  <si>
-    <t>W Michigan</t>
-  </si>
-  <si>
-    <t>WMU</t>
-  </si>
-  <si>
-    <t>E Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the second team [E Illinois], Calculate() - [DIVISION 1 FBS] team playing [?] team, W Michigan wins</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>CLEM</t>
-  </si>
-  <si>
-    <t>36.9</t>
-  </si>
-  <si>
-    <t>NC State</t>
-  </si>
-  <si>
-    <t>NCSU</t>
-  </si>
-  <si>
-    <t>63.1</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>67.7</t>
-  </si>
-  <si>
-    <t>North Texas</t>
-  </si>
-  <si>
-    <t>UNT</t>
-  </si>
-  <si>
-    <t>32.3</t>
-  </si>
-  <si>
-    <t>Mississippi St</t>
-  </si>
-  <si>
-    <t>MSST</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>AUB</t>
-  </si>
-  <si>
-    <t>93.7</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>MICH</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>33.6</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>66.4</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>Iowa State</t>
-  </si>
-  <si>
-    <t>ISU</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>BAY</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>East Carolina</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>UTSA</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Southern Miss</t>
-  </si>
-  <si>
-    <t>USM</t>
-  </si>
-  <si>
-    <t>Appalachian St</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Miami OH</t>
-  </si>
-  <si>
-    <t>M-OH</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>87.4</t>
-  </si>
-  <si>
-    <t>UL Monroe</t>
-  </si>
-  <si>
-    <t>ULM</t>
-  </si>
-  <si>
-    <t>12.6</t>
-  </si>
-  <si>
     <t>South Alabama</t>
   </si>
   <si>
@@ -823,25 +826,10 @@
     <t>CCU</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
     <t>Troy</t>
   </si>
   <si>
     <t>TROY</t>
-  </si>
-  <si>
-    <t>75.1</t>
-  </si>
-  <si>
-    <t>Texas St</t>
-  </si>
-  <si>
-    <t>TXST</t>
-  </si>
-  <si>
-    <t>24.9</t>
   </si>
   <si>
     <t>50</t>
@@ -1358,77 +1346,77 @@
         <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>16.797</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>7.597</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>12.597</v>
@@ -1451,7 +1439,7 @@
         <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
@@ -1533,16 +1521,16 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>-19.803</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
@@ -1583,7 +1571,7 @@
         <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1594,36 +1582,36 @@
         <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
         <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="G11">
         <v>-5.503</v>
       </c>
       <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
         <v>86</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>87</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>88</v>
-      </c>
-      <c r="K11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -1638,7 +1626,7 @@
         <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G12">
         <v>16.697</v>
@@ -1673,27 +1661,27 @@
         <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="G13">
         <v>3.297</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -1708,7 +1696,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G14">
         <v>36.697</v>
@@ -1728,7 +1716,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -1758,47 +1746,47 @@
         <v>115</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>117</v>
-      </c>
-      <c r="D16" t="s">
-        <v>118</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>32.497</v>
       </c>
       <c r="H16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
         <v>119</v>
-      </c>
-      <c r="I16" t="s">
-        <v>120</v>
       </c>
       <c r="J16" t="s">
         <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -1810,10 +1798,10 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" t="s">
         <v>122</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
       </c>
       <c r="G17">
         <v>1.597</v>
@@ -1828,21 +1816,21 @@
         <v>125</v>
       </c>
       <c r="K17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
         <v>126</v>
       </c>
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>127</v>
-      </c>
-      <c r="D18" t="s">
-        <v>128</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -1854,21 +1842,21 @@
         <v>37.297</v>
       </c>
       <c r="H18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" t="s">
         <v>129</v>
-      </c>
-      <c r="I18" t="s">
-        <v>130</v>
       </c>
       <c r="J18" t="s">
         <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -1898,21 +1886,21 @@
         <v>20</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -1933,21 +1921,21 @@
         <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
         <v>70</v>
@@ -1959,7 +1947,7 @@
         <v>61</v>
       </c>
       <c r="H21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J21" t="s">
         <v>61</v>
@@ -1968,196 +1956,196 @@
         <v>61</v>
       </c>
       <c r="L21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E22" t="s">
         <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="G22">
         <v>3.597</v>
       </c>
       <c r="H22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
         <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="G23">
         <v>-0.603</v>
       </c>
       <c r="H23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I23" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23" t="s">
         <v>151</v>
       </c>
-      <c r="J23" t="s">
-        <v>149</v>
-      </c>
       <c r="K23" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>4.997</v>
       </c>
       <c r="H24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K24" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
         <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="G25">
         <v>18.697</v>
       </c>
       <c r="H25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F26" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G26">
         <v>0.897</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K26" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
         <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D27" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -2178,42 +2166,42 @@
         <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
         <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G28">
         <v>27.697</v>
       </c>
       <c r="H28" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I28" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J28" t="s">
         <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2224,51 +2212,51 @@
         <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G29">
         <v>21.797</v>
       </c>
       <c r="H29" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I29" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J29" t="s">
         <v>20</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B30" t="s">
         <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="G30">
         <v>2.397</v>
@@ -2280,112 +2268,112 @@
         <v>28</v>
       </c>
       <c r="J30" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K30" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
         <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="G31">
         <v>12.697</v>
       </c>
       <c r="H31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J31" t="s">
         <v>56</v>
       </c>
       <c r="K31" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D32" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E32" t="s">
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G32">
         <v>26.997</v>
       </c>
       <c r="H32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J32" t="s">
         <v>20</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
         <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G33">
         <v>4.797</v>
       </c>
       <c r="H33" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I33" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K33" t="s">
         <v>79</v>
@@ -2399,45 +2387,45 @@
         <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E34" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>31.397</v>
       </c>
       <c r="H34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J34" t="s">
         <v>20</v>
       </c>
       <c r="K34" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s">
         <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D35" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E35" t="s">
         <v>70</v>
@@ -2449,7 +2437,7 @@
         <v>61</v>
       </c>
       <c r="H35" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J35" t="s">
         <v>61</v>
@@ -2458,187 +2446,187 @@
         <v>61</v>
       </c>
       <c r="L35" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s">
         <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D36" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E36" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="G36">
         <v>4.597</v>
       </c>
       <c r="H36" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I36" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J36" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K36" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D37" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E37" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F37" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G37">
         <v>-6.503</v>
       </c>
       <c r="H37" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I37" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J37" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K37" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
         <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D38" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E38" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F38" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G38">
         <v>17.297</v>
       </c>
       <c r="H38" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I38" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J38" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K38" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B39" t="s">
         <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D39" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="G39">
         <v>-28.803</v>
       </c>
       <c r="H39" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I39" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J39" t="s">
         <v>16</v>
       </c>
       <c r="K39" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s">
         <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="G40">
         <v>5.897</v>
       </c>
       <c r="H40" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I40" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J40" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K40" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="B41" t="s">
         <v>73</v>
@@ -2650,170 +2638,170 @@
         <v>55</v>
       </c>
       <c r="E41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>18.397</v>
       </c>
       <c r="H41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K41" t="s">
-        <v>198</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>233</v>
       </c>
       <c r="B42" t="s">
         <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E42" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F42" t="s">
-        <v>178</v>
+        <v>57</v>
       </c>
       <c r="G42">
         <v>-6.003</v>
       </c>
       <c r="H42" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I42" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J42" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K42" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B43" t="s">
         <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E43" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G43">
         <v>21.697</v>
       </c>
       <c r="H43" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I43" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J43" t="s">
         <v>20</v>
       </c>
       <c r="K43" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>240</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
         <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E44" t="s">
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="G44">
         <v>23.897</v>
       </c>
       <c r="H44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J44" t="s">
         <v>20</v>
       </c>
       <c r="K44" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B45" t="s">
         <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="G45">
         <v>5.897</v>
       </c>
       <c r="H45" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J45" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K45" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="B46" t="s">
         <v>73</v>
@@ -2828,7 +2816,7 @@
         <v>253</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="G46">
         <v>-15.003</v>
@@ -2843,12 +2831,12 @@
         <v>256</v>
       </c>
       <c r="K46" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="B47" t="s">
         <v>73</v>
@@ -2860,100 +2848,100 @@
         <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="G47">
         <v>17.597</v>
       </c>
       <c r="H47" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I47" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J47" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K47" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B48" t="s">
         <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D48" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E48" t="s">
         <v>115</v>
       </c>
       <c r="F48" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G48">
         <v>14.497</v>
       </c>
       <c r="H48" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I48" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J48" t="s">
         <v>111</v>
       </c>
       <c r="K48" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B49" t="s">
         <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D49" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E49" t="s">
         <v>115</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="G49">
         <v>14.497</v>
       </c>
       <c r="H49" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J49" t="s">
         <v>111</v>
       </c>
       <c r="K49" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
         <v>73</v>
@@ -2965,30 +2953,30 @@
         <v>271</v>
       </c>
       <c r="E50" t="s">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="G50">
-        <v>-9.103</v>
+        <v>25.597</v>
       </c>
       <c r="H50" t="s">
-        <v>273</v>
+        <v>106</v>
       </c>
       <c r="I50" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="J50" t="s">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="K50" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B51" t="s">
         <v>73</v>
@@ -3018,27 +3006,27 @@
         <v>20</v>
       </c>
       <c r="K51" t="s">
-        <v>64</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B52" t="s">
         <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D52" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E52" t="s">
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G52">
         <v>34.297</v>
@@ -3053,12 +3041,12 @@
         <v>20</v>
       </c>
       <c r="K52" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B53" t="s">
         <v>73</v>
@@ -3073,92 +3061,92 @@
         <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G53">
         <v>3.297</v>
       </c>
       <c r="H53" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I53" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K53" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B54" t="s">
         <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D54" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F54" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="G54">
         <v>5.397</v>
       </c>
       <c r="H54" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I54" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J54" t="s">
         <v>84</v>
       </c>
       <c r="K54" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B55" t="s">
         <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D55" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E55" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F55" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G55">
         <v>-10.703</v>
       </c>
       <c r="H55" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I55" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J55" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K55" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
